--- a/asset/predict-loss.xlsx
+++ b/asset/predict-loss.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,118 @@
         <v>0.001407438009207222</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>svr-ec</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9538921632879743</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.957249556141604</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9591701996090213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>svr-ga-ec</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9540238258617424</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9573501756952002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9592138135516959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>bp-ec</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9545040537672443</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.959339485964294</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9622581396201989</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>bp-ga-ec</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9545040537672443</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.959339485964294</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9622581396201989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>lssvr-ec</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9550198826352323</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9598636516856726</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.963096579570651</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>lssvr-ga-ec</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9530136410234928</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9563549600949866</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9583730729256952</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ga-knn-lssvr-ec</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9482431276114959</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.954093686133008</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.958469369755825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
